--- a/MyExcelPOI.xlsx
+++ b/MyExcelPOI.xlsx
@@ -41,10 +41,10 @@
     <t>Bhatia</t>
   </si>
   <si>
-    <t>Sam</t>
+    <t>Surabhi</t>
   </si>
   <si>
-    <t>Knight</t>
+    <t>Kulkarni</t>
   </si>
 </sst>
 </file>
